--- a/data/trans_orig/P14B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CDF1C2-FA77-4BBA-B904-36C17D97CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB726EE2-69DC-433A-B138-81B94BF1D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20BAFED2-08A9-4D5A-A828-81053C73E8DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3856AB12-2C39-4488-9665-1A32F89A7840}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -121,19 +121,19 @@
     <t>43,31%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -142,19 +142,19 @@
     <t>56,69%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -169,19 +169,19 @@
     <t>67,85%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>28,41%</t>
@@ -193,19 +193,19 @@
     <t>32,15%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -214,49 +214,49 @@
     <t>31,15%</t>
   </si>
   <si>
-    <t>73,67%</t>
+    <t>73,77%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>26,23%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,103 +265,109 @@
     <t>40,8%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
   </si>
   <si>
     <t>59,2%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>71,81%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>53,87%</t>
   </si>
   <si>
-    <t>44,06%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -385,97 +391,91 @@
     <t>32,37%</t>
   </si>
   <si>
-    <t>78,3%</t>
+    <t>77,74%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>61,14%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>87,13%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>36,97%</t>
+    <t>36,69%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>63,03%</t>
+    <t>63,31%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>38,96%</t>
@@ -523,109 +523,97 @@
     <t>59,98%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>48,24%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>51,76%</t>
   </si>
   <si>
     <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
@@ -640,9 +628,6 @@
     <t>21,78%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
     <t>30,17%</t>
   </si>
   <si>
@@ -661,9 +646,6 @@
     <t>78,22%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
     <t>69,83%</t>
   </si>
   <si>
@@ -676,265 +658,265 @@
     <t>50,57%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>50,43%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>49,43%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>53,37%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>46,63%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>52,2%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>57,69%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>54,61%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>42,31%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>45,39%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>51,03%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>72,19%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>48,97%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827649B8-999E-41C2-AFB3-1F171123D6FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CADC7E-1A7B-4108-8C3A-F45CF0B7D8DA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2126,7 +2108,7 @@
         <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2123,13 @@
         <v>10232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2156,13 +2138,13 @@
         <v>12963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2171,13 +2153,13 @@
         <v>23195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2227,13 @@
         <v>20895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -2260,13 +2242,13 @@
         <v>36728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -2275,13 +2257,13 @@
         <v>57623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2278,13 @@
         <v>18270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -2311,13 +2293,13 @@
         <v>31066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -2326,13 +2308,13 @@
         <v>49336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2370,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DDBB84-15DF-4C96-9F40-1583748AD705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3C19-8AE1-4DE5-B3EB-B7E38191A878}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2426,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2548,7 +2530,7 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2563,7 +2545,7 @@
         <v>988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -2599,7 +2581,7 @@
         <v>894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2614,7 +2596,7 @@
         <v>1739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -2688,13 +2670,13 @@
         <v>1675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2703,13 +2685,13 @@
         <v>5592</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2718,13 +2700,13 @@
         <v>7267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,10 +2721,10 @@
         <v>3500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -2754,10 +2736,10 @@
         <v>8799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>126</v>
@@ -3168,13 +3150,13 @@
         <v>19144</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3183,13 +3165,13 @@
         <v>25869</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3186,13 @@
         <v>4487</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3219,13 +3201,13 @@
         <v>9743</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3234,13 +3216,13 @@
         <v>14229</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3290,13 @@
         <v>16158</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -3323,13 +3305,13 @@
         <v>43237</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3338,13 +3320,13 @@
         <v>59395</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3341,13 @@
         <v>13576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3374,13 +3356,13 @@
         <v>27913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3389,13 +3371,13 @@
         <v>41489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3433,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788C319-C583-4C8B-B130-CE161A0F8E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B44214-9422-44C8-97C0-2498481FA9CE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3596,13 +3578,13 @@
         <v>1417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3611,13 +3593,13 @@
         <v>798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3626,13 +3608,13 @@
         <v>2215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,10 +3629,10 @@
         <v>2262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3662,10 +3644,10 @@
         <v>2864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>15</v>
@@ -3677,13 +3659,13 @@
         <v>5126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3733,13 @@
         <v>4125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3766,13 +3748,13 @@
         <v>7129</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3781,13 +3763,13 @@
         <v>11253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>4032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3817,13 +3799,13 @@
         <v>7029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -3832,13 +3814,13 @@
         <v>11062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3888,13 @@
         <v>11490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3921,13 +3903,13 @@
         <v>13126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3936,13 +3918,13 @@
         <v>24616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3939,13 @@
         <v>10266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3972,13 +3954,13 @@
         <v>11243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -3987,13 +3969,13 @@
         <v>21509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>7974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4076,13 +4058,13 @@
         <v>6911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4091,13 +4073,13 @@
         <v>14885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>7301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4127,13 +4109,13 @@
         <v>5069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4142,13 +4124,13 @@
         <v>12370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4198,13 @@
         <v>6982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4231,13 +4213,13 @@
         <v>16282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -4249,10 +4231,10 @@
         <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4249,13 @@
         <v>18126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4282,13 +4264,13 @@
         <v>15627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4297,13 +4279,13 @@
         <v>33753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4353,13 @@
         <v>31987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4386,13 +4368,13 @@
         <v>44246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -4401,13 +4383,13 @@
         <v>76233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4404,13 @@
         <v>41988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -4437,13 +4419,13 @@
         <v>41832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -4452,13 +4434,13 @@
         <v>83820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4496,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB726EE2-69DC-433A-B138-81B94BF1D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7131DE-854C-434C-9091-F5E0592C569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3856AB12-2C39-4488-9665-1A32F89A7840}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{031AB985-20AF-442E-B4F2-FC88CFF3BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="297">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -91,7 +91,7 @@
     <t>40,34%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,10 +109,10 @@
     <t>59,66%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -121,19 +121,19 @@
     <t>43,31%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -142,121 +142,121 @@
     <t>56,69%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>31,82%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>68,18%</t>
+    <t>67,89%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,387 +265,405 @@
     <t>40,8%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
   </si>
   <si>
     <t>59,2%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>35,25%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>40,68%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2016 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
     <t>69,83%</t>
   </si>
   <si>
@@ -709,9 +727,6 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
     <t>32,97%</t>
   </si>
   <si>
@@ -734,9 +749,6 @@
   </si>
   <si>
     <t>65,97%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
   </si>
   <si>
     <t>28,05%</t>
@@ -1328,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CADC7E-1A7B-4108-8C3A-F45CF0B7D8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD17186-17BF-4EF5-98C0-CC8B69312959}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,22 +2245,22 @@
         <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>36728</v>
+        <v>36727</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -2257,13 +2269,13 @@
         <v>57623</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2290,13 @@
         <v>18270</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -2293,13 +2305,13 @@
         <v>31066</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -2308,13 +2320,13 @@
         <v>49336</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2353,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>67794</v>
+        <v>67793</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>20</v>
@@ -2370,7 +2382,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B3C19-8AE1-4DE5-B3EB-B7E38191A878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4882D-5D6D-43AA-8EC1-E9BE55D81D3E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2408,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,7 +2542,7 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2545,7 +2557,7 @@
         <v>988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -2581,7 +2593,7 @@
         <v>894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2596,7 +2608,7 @@
         <v>1739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -2670,13 +2682,13 @@
         <v>1675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2685,13 +2697,13 @@
         <v>5592</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2700,13 +2712,13 @@
         <v>7267</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,10 +2733,10 @@
         <v>3500</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -2736,10 +2748,10 @@
         <v>8799</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>126</v>
@@ -3150,13 +3162,13 @@
         <v>19144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3165,13 +3177,13 @@
         <v>25869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3198,13 @@
         <v>4487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3201,13 +3213,13 @@
         <v>9743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3216,13 +3228,13 @@
         <v>14229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3302,13 @@
         <v>16158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -3305,28 +3317,28 @@
         <v>43237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>59395</v>
+        <v>59396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3353,13 @@
         <v>13576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3356,13 +3368,13 @@
         <v>27913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3371,13 +3383,13 @@
         <v>41489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="N21" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>20</v>
@@ -3433,7 +3445,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B44214-9422-44C8-97C0-2498481FA9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90497FF-EDC8-4594-B124-EC9820BE0C11}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3471,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3578,13 +3590,13 @@
         <v>1417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3593,13 +3605,13 @@
         <v>798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3608,13 +3620,13 @@
         <v>2215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,10 +3641,10 @@
         <v>2262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3644,10 +3656,10 @@
         <v>2864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>15</v>
@@ -3659,13 +3671,13 @@
         <v>5126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3745,13 @@
         <v>4125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3748,13 +3760,13 @@
         <v>7129</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3763,13 +3775,13 @@
         <v>11253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3796,13 @@
         <v>4032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3799,13 +3811,13 @@
         <v>7029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -3814,13 +3826,13 @@
         <v>11062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3900,13 @@
         <v>11490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3903,13 +3915,13 @@
         <v>13126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3918,13 +3930,13 @@
         <v>24616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3951,13 @@
         <v>10266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3954,13 +3966,13 @@
         <v>11243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -3969,13 +3981,13 @@
         <v>21509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4055,13 @@
         <v>7974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4058,13 +4070,13 @@
         <v>6911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4073,13 +4085,13 @@
         <v>14885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4106,13 @@
         <v>7301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4109,13 +4121,13 @@
         <v>5069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4124,13 +4136,13 @@
         <v>12370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4210,13 @@
         <v>6982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4213,13 +4225,13 @@
         <v>16282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -4231,10 +4243,10 @@
         <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4261,13 @@
         <v>18126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4264,13 +4276,13 @@
         <v>15627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4282,10 +4294,10 @@
         <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4365,13 @@
         <v>31987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4368,13 +4380,13 @@
         <v>44246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -4383,13 +4395,13 @@
         <v>76233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4416,13 @@
         <v>41988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -4419,13 +4431,13 @@
         <v>41832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -4434,13 +4446,13 @@
         <v>83820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4508,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
